--- a/Code/Results/Cases/Case_0_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_145/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04487447322743776</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6671606830458927</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1436091338164971</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11.84800143897968</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002756231402716107</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06072616251083929</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.707467284634873</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.232680290454681</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1791269830978592</v>
+        <v>0.03993442494882515</v>
       </c>
       <c r="D3">
-        <v>2.375187814347498</v>
+        <v>0.6065466171190792</v>
       </c>
       <c r="E3">
-        <v>0.6097512781299059</v>
+        <v>0.1252159035566152</v>
       </c>
       <c r="F3">
-        <v>19.95156204245046</v>
+        <v>11.53170165884114</v>
       </c>
       <c r="G3">
-        <v>0.0005618999335519321</v>
+        <v>0.002779715310771446</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1223098151144342</v>
+        <v>0.05697754077701944</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.58146860323782</v>
+        <v>5.373027205438262</v>
       </c>
       <c r="N3">
-        <v>1.215032954235852</v>
+        <v>1.20805798644318</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1479336542037828</v>
+        <v>0.03695355994240401</v>
       </c>
       <c r="D4">
-        <v>1.953530263410755</v>
+        <v>0.5701880976156417</v>
       </c>
       <c r="E4">
-        <v>0.507926641051867</v>
+        <v>0.1140304883569456</v>
       </c>
       <c r="F4">
-        <v>16.62027107686407</v>
+        <v>11.35143693870538</v>
       </c>
       <c r="G4">
-        <v>0.0006140012521566739</v>
+        <v>0.002794751389554391</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1081718002312968</v>
+        <v>0.05467329212353889</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.67706471100695</v>
+        <v>5.172333241996171</v>
       </c>
       <c r="N4">
-        <v>1.199092792305791</v>
+        <v>1.193599926557965</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.137412490911089</v>
+        <v>0.03575094595377948</v>
       </c>
       <c r="D5">
-        <v>1.812471977222913</v>
+        <v>0.5555732440484462</v>
       </c>
       <c r="E5">
-        <v>0.4732916235534717</v>
+        <v>0.1094965091582338</v>
       </c>
       <c r="F5">
-        <v>15.51733543084936</v>
+        <v>11.28136076970674</v>
       </c>
       <c r="G5">
-        <v>0.0006325777833476173</v>
+        <v>0.002801035615004811</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1031594894454031</v>
+        <v>0.05373341244828822</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.01915263272832</v>
+        <v>5.091667530547312</v>
       </c>
       <c r="N5">
-        <v>1.190329755194881</v>
+        <v>1.18787577143128</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1357529677370053</v>
+        <v>0.03555195462810445</v>
       </c>
       <c r="D6">
-        <v>1.790276272791743</v>
+        <v>0.5531582228263687</v>
       </c>
       <c r="E6">
-        <v>0.4678127354341797</v>
+        <v>0.1087450196825728</v>
       </c>
       <c r="F6">
-        <v>15.34443337035134</v>
+        <v>11.26992551570146</v>
       </c>
       <c r="G6">
-        <v>0.0006355597748008979</v>
+        <v>0.002802088633558214</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1023564702906938</v>
+        <v>0.05357728652268179</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.914645841553863</v>
+        <v>5.078339163721239</v>
       </c>
       <c r="N6">
-        <v>1.188793867752622</v>
+        <v>1.186935452702215</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1477851842255973</v>
+        <v>0.0369372933779033</v>
       </c>
       <c r="D7">
-        <v>1.95153563284282</v>
+        <v>0.5699901991146703</v>
       </c>
       <c r="E7">
-        <v>0.5074390408457532</v>
+        <v>0.1139692475512391</v>
       </c>
       <c r="F7">
-        <v>16.60462834611417</v>
+        <v>11.35047832733522</v>
       </c>
       <c r="G7">
-        <v>0.0006142595794947203</v>
+        <v>0.002794835503327286</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1081019888717094</v>
+        <v>0.05466062043507947</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.66783604811522</v>
+        <v>5.171240892474742</v>
       </c>
       <c r="N7">
-        <v>1.198980905962117</v>
+        <v>1.193522047701379</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2334044381028662</v>
+        <v>0.04315963195382722</v>
       </c>
       <c r="D8">
-        <v>3.121638320835928</v>
+        <v>0.6460738188985147</v>
       </c>
       <c r="E8">
-        <v>0.7850769359750345</v>
+        <v>0.1372428462979016</v>
       </c>
       <c r="F8">
-        <v>25.92016942492933</v>
+        <v>11.73597089140668</v>
       </c>
       <c r="G8">
-        <v>0.0004798354470507092</v>
+        <v>0.002764201718821886</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1449175249559502</v>
+        <v>0.05943402889132443</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.73701983771608</v>
+        <v>5.591154565858062</v>
       </c>
       <c r="N8">
-        <v>1.206738199729742</v>
+        <v>1.224054453831229</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2334044381028662</v>
+        <v>0.05582733406190243</v>
       </c>
       <c r="D9">
-        <v>3.121638320835928</v>
+        <v>0.8027784826419975</v>
       </c>
       <c r="E9">
-        <v>0.7850769359750345</v>
+        <v>0.1838854520261748</v>
       </c>
       <c r="F9">
-        <v>25.92016942492933</v>
+        <v>12.60847610859201</v>
       </c>
       <c r="G9">
-        <v>0.0004798354470507092</v>
+        <v>0.002708939334839647</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1449175249559502</v>
+        <v>0.06878574483158673</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.73701983771608</v>
+        <v>6.454031337204839</v>
       </c>
       <c r="N9">
-        <v>1.206738199729742</v>
+        <v>1.289102379110204</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2334044381028662</v>
+        <v>0.06549296815953198</v>
       </c>
       <c r="D10">
-        <v>3.121638320835928</v>
+        <v>0.9235096141553072</v>
       </c>
       <c r="E10">
-        <v>0.7850769359750345</v>
+        <v>0.2189820882321811</v>
       </c>
       <c r="F10">
-        <v>25.92016942492933</v>
+        <v>13.32932256742708</v>
       </c>
       <c r="G10">
-        <v>0.0004798354470507092</v>
+        <v>0.002671148105109849</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1449175249559502</v>
+        <v>0.07566880053773417</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.73701983771608</v>
+        <v>7.115783242430382</v>
       </c>
       <c r="N10">
-        <v>1.206738199729742</v>
+        <v>1.33997233598086</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2334044381028662</v>
+        <v>0.06998573192032609</v>
       </c>
       <c r="D11">
-        <v>3.121638320835928</v>
+        <v>0.9798926306015119</v>
       </c>
       <c r="E11">
-        <v>0.7850769359750345</v>
+        <v>0.2351798834179561</v>
       </c>
       <c r="F11">
-        <v>25.92016942492933</v>
+        <v>13.67666656973466</v>
       </c>
       <c r="G11">
-        <v>0.0004798354470507092</v>
+        <v>0.002654537812737313</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1449175249559502</v>
+        <v>0.07880706776586521</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.73701983771608</v>
+        <v>7.423766432514185</v>
       </c>
       <c r="N11">
-        <v>1.206738199729742</v>
+        <v>1.363768810038039</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2334044381028662</v>
+        <v>0.07170237089847831</v>
       </c>
       <c r="D12">
-        <v>3.121638320835928</v>
+        <v>1.001475157823336</v>
       </c>
       <c r="E12">
-        <v>0.7850769359750345</v>
+        <v>0.241351503253</v>
       </c>
       <c r="F12">
-        <v>25.92016942492933</v>
+        <v>13.81117510461598</v>
       </c>
       <c r="G12">
-        <v>0.0004798354470507092</v>
+        <v>0.00264832906800697</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1449175249559502</v>
+        <v>0.07999684809389151</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.73701983771608</v>
+        <v>7.541470293090981</v>
       </c>
       <c r="N12">
-        <v>1.206738199729742</v>
+        <v>1.372872934671619</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2334044381028662</v>
+        <v>0.07133195450819585</v>
       </c>
       <c r="D13">
-        <v>3.121638320835928</v>
+        <v>0.9968163232978782</v>
       </c>
       <c r="E13">
-        <v>0.7850769359750345</v>
+        <v>0.2400205755916573</v>
       </c>
       <c r="F13">
-        <v>25.92016942492933</v>
+        <v>13.78207083134805</v>
       </c>
       <c r="G13">
-        <v>0.0004798354470507092</v>
+        <v>0.002649662659235321</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1449175249559502</v>
+        <v>0.07974053987162222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.73701983771608</v>
+        <v>7.516071442415864</v>
       </c>
       <c r="N13">
-        <v>1.206738199729742</v>
+        <v>1.370908086765638</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2334044381028662</v>
+        <v>0.0701266444173001</v>
       </c>
       <c r="D14">
-        <v>3.121638320835928</v>
+        <v>0.9816634711872325</v>
       </c>
       <c r="E14">
-        <v>0.7850769359750345</v>
+        <v>0.2356868405887127</v>
       </c>
       <c r="F14">
-        <v>25.92016942492933</v>
+        <v>13.68767191106048</v>
       </c>
       <c r="G14">
-        <v>0.0004798354470507092</v>
+        <v>0.002654025401558271</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1449175249559502</v>
+        <v>0.07890492174499997</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.73701983771608</v>
+        <v>7.433427941434161</v>
       </c>
       <c r="N14">
-        <v>1.206738199729742</v>
+        <v>1.364515957132994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2334044381028662</v>
+        <v>0.06939040096899873</v>
       </c>
       <c r="D15">
-        <v>3.121638320835928</v>
+        <v>0.9724127174380328</v>
       </c>
       <c r="E15">
-        <v>0.7850769359750345</v>
+        <v>0.2330373725264678</v>
       </c>
       <c r="F15">
-        <v>25.92016942492933</v>
+        <v>13.63024318360158</v>
       </c>
       <c r="G15">
-        <v>0.0004798354470507092</v>
+        <v>0.002656708211874873</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1449175249559502</v>
+        <v>0.07839327331894452</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.73701983771608</v>
+        <v>7.382949123077822</v>
       </c>
       <c r="N15">
-        <v>1.206738199729742</v>
+        <v>1.360612654866543</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2334044381028662</v>
+        <v>0.06520141353608722</v>
       </c>
       <c r="D16">
-        <v>3.121638320835928</v>
+        <v>0.9198560540665994</v>
       </c>
       <c r="E16">
-        <v>0.7850769359750345</v>
+        <v>0.2179285718599857</v>
       </c>
       <c r="F16">
-        <v>25.92016942492933</v>
+        <v>13.30702912806458</v>
       </c>
       <c r="G16">
-        <v>0.0004798354470507092</v>
+        <v>0.002672245122234901</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1449175249559502</v>
+        <v>0.07546388110106506</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.73701983771608</v>
+        <v>7.095802191108135</v>
       </c>
       <c r="N16">
-        <v>1.206738199729742</v>
+        <v>1.338430254344672</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2334044381028662</v>
+        <v>0.06265721543593372</v>
       </c>
       <c r="D17">
-        <v>3.121638320835928</v>
+        <v>0.8880033460440586</v>
       </c>
       <c r="E17">
-        <v>0.7850769359750345</v>
+        <v>0.2087223646900611</v>
       </c>
       <c r="F17">
-        <v>25.92016942492933</v>
+        <v>13.11385005535095</v>
       </c>
       <c r="G17">
-        <v>0.0004798354470507092</v>
+        <v>0.002681923719314721</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1449175249559502</v>
+        <v>0.07366886816010521</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.73701983771608</v>
+        <v>6.921480412520424</v>
       </c>
       <c r="N17">
-        <v>1.206738199729742</v>
+        <v>1.324988980425047</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2334044381028662</v>
+        <v>0.06120278007507807</v>
       </c>
       <c r="D18">
-        <v>3.121638320835928</v>
+        <v>0.8698187452525872</v>
       </c>
       <c r="E18">
-        <v>0.7850769359750345</v>
+        <v>0.2034487633413136</v>
       </c>
       <c r="F18">
-        <v>25.92016942492933</v>
+        <v>13.00455545817476</v>
       </c>
       <c r="G18">
-        <v>0.0004798354470507092</v>
+        <v>0.002687545438585424</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1449175249559502</v>
+        <v>0.07263707205970604</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.73701983771608</v>
+        <v>6.821864202135941</v>
       </c>
       <c r="N18">
-        <v>1.206738199729742</v>
+        <v>1.317319687895605</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2334044381028662</v>
+        <v>0.06071181982183305</v>
       </c>
       <c r="D19">
-        <v>3.121638320835928</v>
+        <v>0.8636845250489387</v>
       </c>
       <c r="E19">
-        <v>0.7850769359750345</v>
+        <v>0.2016667849476477</v>
       </c>
       <c r="F19">
-        <v>25.92016942492933</v>
+        <v>12.96785685835027</v>
       </c>
       <c r="G19">
-        <v>0.0004798354470507092</v>
+        <v>0.002689458346081335</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1449175249559502</v>
+        <v>0.07228782436387604</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.73701983771608</v>
+        <v>6.788245055686616</v>
       </c>
       <c r="N19">
-        <v>1.206738199729742</v>
+        <v>1.314733648565152</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2334044381028662</v>
+        <v>0.0629271155912221</v>
       </c>
       <c r="D20">
-        <v>3.121638320835928</v>
+        <v>0.8913798718412522</v>
       </c>
       <c r="E20">
-        <v>0.7850769359750345</v>
+        <v>0.2097001177418178</v>
       </c>
       <c r="F20">
-        <v>25.92016942492933</v>
+        <v>13.13422496804446</v>
       </c>
       <c r="G20">
-        <v>0.0004798354470507092</v>
+        <v>0.002680887756532576</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1449175249559502</v>
+        <v>0.07385988077579952</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.73701983771608</v>
+        <v>6.939969540118881</v>
       </c>
       <c r="N20">
-        <v>1.206738199729742</v>
+        <v>1.326413443637222</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2334044381028662</v>
+        <v>0.07048024436950584</v>
       </c>
       <c r="D21">
-        <v>3.121638320835928</v>
+        <v>0.9861077711686335</v>
       </c>
       <c r="E21">
-        <v>0.7850769359750345</v>
+        <v>0.2369586986234538</v>
       </c>
       <c r="F21">
-        <v>25.92016942492933</v>
+        <v>13.71531684594362</v>
       </c>
       <c r="G21">
-        <v>0.0004798354470507092</v>
+        <v>0.002652741773578181</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1449175249559502</v>
+        <v>0.07915032238555852</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.73701983771608</v>
+        <v>7.457672452392899</v>
       </c>
       <c r="N21">
-        <v>1.206738199729742</v>
+        <v>1.36639096921553</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2334044381028662</v>
+        <v>0.07550678456192372</v>
       </c>
       <c r="D22">
-        <v>3.121638320835928</v>
+        <v>1.049378274452863</v>
       </c>
       <c r="E22">
-        <v>0.7850769359750345</v>
+        <v>0.2549967850891051</v>
       </c>
       <c r="F22">
-        <v>25.92016942492933</v>
+        <v>14.11254005034476</v>
       </c>
       <c r="G22">
-        <v>0.0004798354470507092</v>
+        <v>0.002634818931790406</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1449175249559502</v>
+        <v>0.08261620353128762</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.73701983771608</v>
+        <v>7.802341065549797</v>
       </c>
       <c r="N22">
-        <v>1.206738199729742</v>
+        <v>1.393059600742987</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2334044381028662</v>
+        <v>0.07281523819155211</v>
       </c>
       <c r="D23">
-        <v>3.121638320835928</v>
+        <v>1.015477715447048</v>
       </c>
       <c r="E23">
-        <v>0.7850769359750345</v>
+        <v>0.2453475463475314</v>
       </c>
       <c r="F23">
-        <v>25.92016942492933</v>
+        <v>13.89887429567835</v>
       </c>
       <c r="G23">
-        <v>0.0004798354470507092</v>
+        <v>0.002644342296155148</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1449175249559502</v>
+        <v>0.08076551348156613</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.73701983771608</v>
+        <v>7.61777936015676</v>
       </c>
       <c r="N23">
-        <v>1.206738199729742</v>
+        <v>1.37877697542018</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2334044381028662</v>
+        <v>0.06280506812470321</v>
       </c>
       <c r="D24">
-        <v>3.121638320835928</v>
+        <v>0.8898529475997634</v>
       </c>
       <c r="E24">
-        <v>0.7850769359750345</v>
+        <v>0.2092580162127149</v>
       </c>
       <c r="F24">
-        <v>25.92016942492933</v>
+        <v>13.12500798107999</v>
       </c>
       <c r="G24">
-        <v>0.0004798354470507092</v>
+        <v>0.002681355936427321</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1449175249559502</v>
+        <v>0.07377352343614518</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.73701983771608</v>
+        <v>6.931608730967298</v>
       </c>
       <c r="N24">
-        <v>1.206738199729742</v>
+        <v>1.325769262203409</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2334044381028662</v>
+        <v>0.05234308385320219</v>
       </c>
       <c r="D25">
-        <v>3.121638320835928</v>
+        <v>0.759480242876748</v>
       </c>
       <c r="E25">
-        <v>0.7850769359750345</v>
+        <v>0.1711384345417457</v>
       </c>
       <c r="F25">
-        <v>25.92016942492933</v>
+        <v>12.35909055883485</v>
       </c>
       <c r="G25">
-        <v>0.0004798354470507092</v>
+        <v>0.002723386617549511</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1449175249559502</v>
+        <v>0.06625505199635029</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.73701983771608</v>
+        <v>6.216005967925952</v>
       </c>
       <c r="N25">
-        <v>1.206738199729742</v>
+        <v>1.270959272791515</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_145/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04487447322743776</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6671606830458927</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1436091338164971</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11.84800143897968</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002756231402716107</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06072616251083929</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.707467284634873</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.232680290454681</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03993442494882515</v>
+        <v>0.1791269830974045</v>
       </c>
       <c r="D3">
-        <v>0.6065466171190792</v>
+        <v>2.375187814347328</v>
       </c>
       <c r="E3">
-        <v>0.1252159035566152</v>
+        <v>0.609751278129913</v>
       </c>
       <c r="F3">
-        <v>11.53170165884114</v>
+        <v>19.95156204244967</v>
       </c>
       <c r="G3">
-        <v>0.002779715310771446</v>
+        <v>0.0005618999335108565</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05697754077701944</v>
+        <v>0.1223098151144129</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.373027205438262</v>
+        <v>12.58146860323737</v>
       </c>
       <c r="N3">
-        <v>1.20805798644318</v>
+        <v>1.215032954235866</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03695355994240401</v>
+        <v>0.1479336542044507</v>
       </c>
       <c r="D4">
-        <v>0.5701880976156417</v>
+        <v>1.953530263410812</v>
       </c>
       <c r="E4">
-        <v>0.1140304883569456</v>
+        <v>0.5079266410518528</v>
       </c>
       <c r="F4">
-        <v>11.35143693870538</v>
+        <v>16.62027107686362</v>
       </c>
       <c r="G4">
-        <v>0.002794751389554391</v>
+        <v>0.0006140012523253362</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05467329212353889</v>
+        <v>0.1081718002314389</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.172333241996171</v>
+        <v>10.67706471100678</v>
       </c>
       <c r="N4">
-        <v>1.193599926557965</v>
+        <v>1.199092792305777</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03575094595377948</v>
+        <v>0.1374124909105205</v>
       </c>
       <c r="D5">
-        <v>0.5555732440484462</v>
+        <v>1.812471977222685</v>
       </c>
       <c r="E5">
-        <v>0.1094965091582338</v>
+        <v>0.4732916235535427</v>
       </c>
       <c r="F5">
-        <v>11.28136076970674</v>
+        <v>15.51733543084924</v>
       </c>
       <c r="G5">
-        <v>0.002801035615004811</v>
+        <v>0.0006325777833077562</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05373341244828822</v>
+        <v>0.1031594894455878</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.091667530547312</v>
+        <v>10.01915263272826</v>
       </c>
       <c r="N5">
-        <v>1.18787577143128</v>
+        <v>1.190329755194838</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03555195462810445</v>
+        <v>0.1357529677370621</v>
       </c>
       <c r="D6">
-        <v>0.5531582228263687</v>
+        <v>1.790276272792482</v>
       </c>
       <c r="E6">
-        <v>0.1087450196825728</v>
+        <v>0.4678127354341868</v>
       </c>
       <c r="F6">
-        <v>11.26992551570146</v>
+        <v>15.34443337035117</v>
       </c>
       <c r="G6">
-        <v>0.002802088633558214</v>
+        <v>0.0006355597749537345</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05357728652268179</v>
+        <v>0.1023564702906512</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.078339163721239</v>
+        <v>9.914645841553778</v>
       </c>
       <c r="N6">
-        <v>1.186935452702215</v>
+        <v>1.188793867752651</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0369372933779033</v>
+        <v>0.1477851842255973</v>
       </c>
       <c r="D7">
-        <v>0.5699901991146703</v>
+        <v>1.951535632842649</v>
       </c>
       <c r="E7">
-        <v>0.1139692475512391</v>
+        <v>0.5074390408456892</v>
       </c>
       <c r="F7">
-        <v>11.35047832733522</v>
+        <v>16.60462834611411</v>
       </c>
       <c r="G7">
-        <v>0.002794835503327286</v>
+        <v>0.0006142595794018114</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05466062043507947</v>
+        <v>0.1081019888718515</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.171240892474742</v>
+        <v>10.6678360481153</v>
       </c>
       <c r="N7">
-        <v>1.193522047701379</v>
+        <v>1.19898090596206</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04315963195382722</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D8">
-        <v>0.6460738188985147</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E8">
-        <v>0.1372428462979016</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F8">
-        <v>11.73597089140668</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G8">
-        <v>0.002764201718821886</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05943402889132443</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.591154565858062</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N8">
-        <v>1.224054453831229</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05582733406190243</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D9">
-        <v>0.8027784826419975</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E9">
-        <v>0.1838854520261748</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F9">
-        <v>12.60847610859201</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G9">
-        <v>0.002708939334839647</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06878574483158673</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.454031337204839</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N9">
-        <v>1.289102379110204</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06549296815953198</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D10">
-        <v>0.9235096141553072</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E10">
-        <v>0.2189820882321811</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F10">
-        <v>13.32932256742708</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G10">
-        <v>0.002671148105109849</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07566880053773417</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.115783242430382</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N10">
-        <v>1.33997233598086</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06998573192032609</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D11">
-        <v>0.9798926306015119</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E11">
-        <v>0.2351798834179561</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F11">
-        <v>13.67666656973466</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G11">
-        <v>0.002654537812737313</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07880706776586521</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.423766432514185</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N11">
-        <v>1.363768810038039</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07170237089847831</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D12">
-        <v>1.001475157823336</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E12">
-        <v>0.241351503253</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F12">
-        <v>13.81117510461598</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G12">
-        <v>0.00264832906800697</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07999684809389151</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7.541470293090981</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N12">
-        <v>1.372872934671619</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07133195450819585</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D13">
-        <v>0.9968163232978782</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E13">
-        <v>0.2400205755916573</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F13">
-        <v>13.78207083134805</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G13">
-        <v>0.002649662659235321</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07974053987162222</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7.516071442415864</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N13">
-        <v>1.370908086765638</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0701266444173001</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D14">
-        <v>0.9816634711872325</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E14">
-        <v>0.2356868405887127</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F14">
-        <v>13.68767191106048</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G14">
-        <v>0.002654025401558271</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07890492174499997</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7.433427941434161</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N14">
-        <v>1.364515957132994</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06939040096899873</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D15">
-        <v>0.9724127174380328</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E15">
-        <v>0.2330373725264678</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F15">
-        <v>13.63024318360158</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G15">
-        <v>0.002656708211874873</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07839327331894452</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7.382949123077822</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N15">
-        <v>1.360612654866543</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06520141353608722</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D16">
-        <v>0.9198560540665994</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E16">
-        <v>0.2179285718599857</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F16">
-        <v>13.30702912806458</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G16">
-        <v>0.002672245122234901</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07546388110106506</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.095802191108135</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N16">
-        <v>1.338430254344672</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06265721543593372</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D17">
-        <v>0.8880033460440586</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E17">
-        <v>0.2087223646900611</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F17">
-        <v>13.11385005535095</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G17">
-        <v>0.002681923719314721</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07366886816010521</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.921480412520424</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N17">
-        <v>1.324988980425047</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06120278007507807</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D18">
-        <v>0.8698187452525872</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E18">
-        <v>0.2034487633413136</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F18">
-        <v>13.00455545817476</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G18">
-        <v>0.002687545438585424</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07263707205970604</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.821864202135941</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N18">
-        <v>1.317319687895605</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06071181982183305</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D19">
-        <v>0.8636845250489387</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E19">
-        <v>0.2016667849476477</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F19">
-        <v>12.96785685835027</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G19">
-        <v>0.002689458346081335</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07228782436387604</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.788245055686616</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N19">
-        <v>1.314733648565152</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0629271155912221</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D20">
-        <v>0.8913798718412522</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E20">
-        <v>0.2097001177418178</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F20">
-        <v>13.13422496804446</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G20">
-        <v>0.002680887756532576</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07385988077579952</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6.939969540118881</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N20">
-        <v>1.326413443637222</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07048024436950584</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D21">
-        <v>0.9861077711686335</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E21">
-        <v>0.2369586986234538</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F21">
-        <v>13.71531684594362</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G21">
-        <v>0.002652741773578181</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07915032238555852</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7.457672452392899</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N21">
-        <v>1.36639096921553</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07550678456192372</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D22">
-        <v>1.049378274452863</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E22">
-        <v>0.2549967850891051</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F22">
-        <v>14.11254005034476</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G22">
-        <v>0.002634818931790406</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08261620353128762</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>7.802341065549797</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N22">
-        <v>1.393059600742987</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07281523819155211</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D23">
-        <v>1.015477715447048</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E23">
-        <v>0.2453475463475314</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F23">
-        <v>13.89887429567835</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G23">
-        <v>0.002644342296155148</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08076551348156613</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7.61777936015676</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N23">
-        <v>1.37877697542018</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06280506812470321</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D24">
-        <v>0.8898529475997634</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E24">
-        <v>0.2092580162127149</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F24">
-        <v>13.12500798107999</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G24">
-        <v>0.002681355936427321</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07377352343614518</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>6.931608730967298</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N24">
-        <v>1.325769262203409</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05234308385320219</v>
+        <v>0.2334044381023688</v>
       </c>
       <c r="D25">
-        <v>0.759480242876748</v>
+        <v>3.121638320835416</v>
       </c>
       <c r="E25">
-        <v>0.1711384345417457</v>
+        <v>0.7850769359749563</v>
       </c>
       <c r="F25">
-        <v>12.35909055883485</v>
+        <v>25.9201694249283</v>
       </c>
       <c r="G25">
-        <v>0.002723386617549511</v>
+        <v>0.0004798354471689327</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06625505199635029</v>
+        <v>0.1449175249558294</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.216005967925952</v>
+        <v>15.73701983771556</v>
       </c>
       <c r="N25">
-        <v>1.270959272791515</v>
+        <v>1.20673819972977</v>
       </c>
       <c r="O25">
         <v>0</v>
